--- a/smart_planning/v3-classification/Evaluation.xlsx
+++ b/smart_planning/v3-classification/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubmag\Desktop\ML_journey\smart_planning\v3-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779474AF-D69D-4DB2-BF4F-E75F540862FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2796AAD-BA6A-42FB-9DAF-A3FFA1B09204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{44FDDE14-389A-4979-8F2B-D33D2E25B80E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Planification</t>
   </si>
@@ -136,6 +136,9 @@
     <t>nombre de salles sur utilisées</t>
   </si>
   <si>
+    <t>Label</t>
+  </si>
+  <si>
     <t>SC_simultanite_Perc</t>
   </si>
   <si>
@@ -172,7 +175,31 @@
     <t>SHPDIntvs_Perc</t>
   </si>
   <si>
-    <t>Label</t>
+    <t>Planif-i-24</t>
+  </si>
+  <si>
+    <t>Planif-i-25</t>
+  </si>
+  <si>
+    <t>Planif-i-26</t>
+  </si>
+  <si>
+    <t>Planif-i-27</t>
+  </si>
+  <si>
+    <t>Planif-i-28</t>
+  </si>
+  <si>
+    <t>Planif-i-29</t>
+  </si>
+  <si>
+    <t>Planif-i-30</t>
+  </si>
+  <si>
+    <t>Planif-i-31</t>
+  </si>
+  <si>
+    <t>Planif-i-32</t>
   </si>
 </sst>
 </file>
@@ -220,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,22 +285,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,8 +304,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,725 +624,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6A1ABF-5E1D-40ED-88AE-F051B521AC8C}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D2" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>36.257049569605229</v>
+      </c>
+      <c r="G2" s="6">
+        <v>15.25974025974026</v>
+      </c>
+      <c r="H2" s="6">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2.5974025974025969</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D3" s="6">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>37.294693043287829</v>
+      </c>
+      <c r="G3" s="6">
+        <v>15.90909090909091</v>
+      </c>
+      <c r="H3" s="6">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D4" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>36.181277860326887</v>
+      </c>
+      <c r="G4" s="6">
+        <v>15.25974025974026</v>
+      </c>
+      <c r="H4" s="6">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="D5" s="6">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>37.794192193496997</v>
+      </c>
+      <c r="G5" s="6">
+        <v>13.311688311688309</v>
+      </c>
+      <c r="H5" s="6">
+        <v>24.675324675324671</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.32467532467532467</v>
+      </c>
+      <c r="D6" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>37.014224959671502</v>
+      </c>
+      <c r="G6" s="6">
+        <v>14.935064935064929</v>
+      </c>
+      <c r="H6" s="6">
+        <v>23.051948051948049</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D7" s="6">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>37.6723262226092</v>
+      </c>
+      <c r="G7" s="6">
+        <v>16.88311688311688</v>
+      </c>
+      <c r="H7" s="6">
+        <v>24.675324675324671</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2.9220779220779218</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.64935064935064934</v>
       </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>35.943325876211787</v>
-      </c>
-      <c r="G2">
-        <v>14.61038961038961</v>
-      </c>
-      <c r="H2">
-        <v>26.623376623376618</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="D8" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>36.759184274460722</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13.961038961038961</v>
+      </c>
+      <c r="H8" s="6">
+        <v>25.97402597402597</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D9" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>36.97725605282465</v>
+      </c>
+      <c r="G9" s="6">
+        <v>15.584415584415581</v>
+      </c>
+      <c r="H9" s="6">
+        <v>24.02597402597403</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D10" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>38.603387892216418</v>
+      </c>
+      <c r="G10" s="6">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="H10" s="6">
+        <v>25.97402597402597</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="D11" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>37.345003646973012</v>
+      </c>
+      <c r="G11" s="6">
+        <v>14.285714285714279</v>
+      </c>
+      <c r="H11" s="6">
+        <v>24.02597402597403</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
         <v>1.6233766233766229</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3.2467532467532458</v>
-      </c>
-      <c r="D3">
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D12" s="6">
         <v>82.5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>37.014224959671502</v>
-      </c>
-      <c r="G3">
-        <v>14.61038961038961</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.51546391752577314</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>37.331290581454731</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="H12" s="6">
+        <v>23.376623376623371</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D13" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>36.689268867924532</v>
+      </c>
+      <c r="G13" s="6">
+        <v>12.662337662337659</v>
+      </c>
+      <c r="H13" s="6">
+        <v>25.97402597402597</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D14" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>35.933770883054891</v>
+      </c>
+      <c r="G14" s="6">
+        <v>13.311688311688309</v>
+      </c>
+      <c r="H14" s="6">
+        <v>25.649350649350652</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="D15" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>36.389218009478682</v>
+      </c>
+      <c r="G15" s="6">
+        <v>14.935064935064929</v>
+      </c>
+      <c r="H15" s="6">
+        <v>24.350649350649348</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D16" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>36.721915285451203</v>
+      </c>
+      <c r="G16" s="6">
+        <v>13.311688311688309</v>
+      </c>
+      <c r="H16" s="6">
+        <v>25.649350649350652</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
         <v>2.2727272727272729</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1.6233766233766229</v>
-      </c>
-      <c r="D4">
-        <v>82.5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>37.758133468589243</v>
-      </c>
-      <c r="G4">
-        <v>12.662337662337659</v>
-      </c>
-      <c r="H4">
-        <v>25.324675324675319</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1.2987012987012989</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.97402597402597402</v>
-      </c>
-      <c r="D5">
-        <v>82.5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>37.376977473208427</v>
-      </c>
-      <c r="G5">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="H5">
-        <v>23.7012987012987</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>2.9220779220779218</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.64935064935064934</v>
-      </c>
-      <c r="D6">
-        <v>82.5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>35.938548735923632</v>
-      </c>
-      <c r="G6">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="H6">
-        <v>23.376623376623371</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1.6233766233766229</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1.2987012987012989</v>
-      </c>
-      <c r="D7">
-        <v>82.5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>36.152817006094843</v>
-      </c>
-      <c r="G7">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="H7">
-        <v>25.649350649350652</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.64935064935064934</v>
-      </c>
-      <c r="D8">
-        <v>82.5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>37.807703446278602</v>
-      </c>
-      <c r="G8">
-        <v>15.25974025974026</v>
-      </c>
-      <c r="H8">
-        <v>24.02597402597403</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1.2987012987012989</v>
-      </c>
-      <c r="D9">
-        <v>82.5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>36.740555269165633</v>
-      </c>
-      <c r="G9">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="H9">
-        <v>24.02597402597403</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2.5974025974025969</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1.6233766233766229</v>
-      </c>
-      <c r="D10">
-        <v>82.5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>36.581764488741229</v>
-      </c>
-      <c r="G10">
-        <v>12.662337662337659</v>
-      </c>
-      <c r="H10">
-        <v>24.02597402597403</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0.97402597402597402</v>
-      </c>
-      <c r="D11">
-        <v>82.5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>37.418038758560392</v>
-      </c>
-      <c r="G11">
-        <v>14.935064935064929</v>
-      </c>
-      <c r="H11">
-        <v>24.675324675324671</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>8.4415584415584419</v>
-      </c>
-      <c r="D12">
-        <v>80</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>35.785303132241907</v>
-      </c>
-      <c r="G12">
-        <v>15.25974025974026</v>
-      </c>
-      <c r="H12">
-        <v>26.2987012987013</v>
-      </c>
-      <c r="I12">
-        <v>0.50505050505050508</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="D13">
-        <v>82.5</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>37.239716519324908</v>
-      </c>
-      <c r="G13">
-        <v>14.61038961038961</v>
-      </c>
-      <c r="H13">
-        <v>25.324675324675319</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>10.064935064935071</v>
-      </c>
-      <c r="D14">
-        <v>82.5</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>37.69493000652789</v>
-      </c>
-      <c r="G14">
-        <v>13.311688311688309</v>
-      </c>
-      <c r="H14">
-        <v>24.675324675324671</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0.49751243781094528</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>6.8181818181818166</v>
-      </c>
-      <c r="D15">
-        <v>82.5</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>37.101852529838183</v>
-      </c>
-      <c r="G15">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="H15">
-        <v>24.02597402597403</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.97402597402597402</v>
-      </c>
-      <c r="D16" s="3">
-        <v>82.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>35.818888224745962</v>
-      </c>
-      <c r="G16" s="3">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="H16" s="3">
-        <v>23.051948051948049</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2.9220779220779218</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1334,51 +1350,48 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D17" s="6">
         <v>80</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>35.282151736608149</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>37.527272727272717</v>
+      </c>
+      <c r="G17" s="6">
         <v>14.61038961038961</v>
       </c>
-      <c r="H17" s="3">
-        <v>23.051948051948049</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="H17" s="6">
+        <v>25.324675324675319</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
         <v>1.6233766233766229</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1389,51 +1402,48 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.32467532467532467</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D18" s="6">
         <v>82.5</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>37.821208830980822</v>
-      </c>
-      <c r="G18" s="3">
-        <v>15.25974025974026</v>
-      </c>
-      <c r="H18" s="3">
-        <v>24.02597402597403</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>37.418038758560392</v>
+      </c>
+      <c r="G18" s="6">
+        <v>12.662337662337659</v>
+      </c>
+      <c r="H18" s="6">
+        <v>23.051948051948049</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
         <v>1.948051948051948</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1444,51 +1454,48 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>0.97402597402597402</v>
       </c>
-      <c r="D19" s="3">
-        <v>82.5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>37.041923189680453</v>
-      </c>
-      <c r="G19" s="3">
-        <v>15.25974025974026</v>
-      </c>
-      <c r="H19" s="3">
-        <v>25.97402597402597</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1.2987012987012989</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="D19" s="6">
+        <v>80</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>36.105325795894068</v>
+      </c>
+      <c r="G19" s="6">
+        <v>12.98701298701299</v>
+      </c>
+      <c r="H19" s="6">
+        <v>23.7012987012987</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.50761421319796951</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1499,222 +1506,618 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
-        <v>6.4935064935064926</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="6">
+        <v>0.32467532467532467</v>
+      </c>
+      <c r="D20" s="6">
         <v>82.5</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>35.799701046337823</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>37.69944879605454</v>
+      </c>
+      <c r="G20" s="6">
+        <v>15.584415584415581</v>
+      </c>
+      <c r="H20" s="6">
+        <v>23.376623376623371</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D21" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>36.763839811542987</v>
+      </c>
+      <c r="G21" s="6">
+        <v>15.584415584415581</v>
+      </c>
+      <c r="H21" s="6">
+        <v>23.7012987012987</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.32467532467532467</v>
+      </c>
+      <c r="D22" s="6">
+        <v>80</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>37.559060841753293</v>
+      </c>
+      <c r="G22" s="6">
+        <v>15.25974025974026</v>
+      </c>
+      <c r="H22" s="6">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D23" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>35.708405059501537</v>
+      </c>
+      <c r="G23" s="6">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="H23" s="6">
+        <v>25.649350649350652</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="D24" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>37.803200347549051</v>
+      </c>
+      <c r="G24" s="6">
+        <v>13.961038961038961</v>
+      </c>
+      <c r="H24" s="6">
+        <v>22.402597402597401</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>3.2467532467532458</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="D25" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>36.838235294117652</v>
+      </c>
+      <c r="G25" s="6">
+        <v>12.662337662337659</v>
+      </c>
+      <c r="H25" s="6">
+        <v>25.649350649350652</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D26" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>38.378766140602579</v>
+      </c>
+      <c r="G26" s="6">
+        <v>14.285714285714279</v>
+      </c>
+      <c r="H26" s="6">
+        <v>23.051948051948049</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.25252525252525249</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1.2987012987012989</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="D27" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>37.431713890305197</v>
+      </c>
+      <c r="G27" s="6">
         <v>13.311688311688309</v>
       </c>
-      <c r="H20">
+      <c r="H27" s="6">
+        <v>25</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D28" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>37.258052735373603</v>
+      </c>
+      <c r="G28" s="6">
+        <v>12.98701298701299</v>
+      </c>
+      <c r="H28" s="6">
+        <v>24.02597402597403</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D29" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>35.785303132241907</v>
+      </c>
+      <c r="G29" s="6">
+        <v>14.285714285714279</v>
+      </c>
+      <c r="H29" s="6">
+        <v>25.324675324675319</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D30" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>36.181277860326887</v>
+      </c>
+      <c r="G30" s="6">
+        <v>14.285714285714279</v>
+      </c>
+      <c r="H30" s="6">
+        <v>23.376623376623371</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.32467532467532467</v>
+      </c>
+      <c r="D31" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>36.572399025326732</v>
+      </c>
+      <c r="G31" s="6">
+        <v>14.935064935064929</v>
+      </c>
+      <c r="H31" s="6">
+        <v>23.051948051948049</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.6233766233766229</v>
+      </c>
+      <c r="D32" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>37.559060841753293</v>
+      </c>
+      <c r="G32" s="6">
+        <v>14.61038961038961</v>
+      </c>
+      <c r="H32" s="6">
+        <v>21.753246753246749</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2.5974025974025969</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="D33" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>36.459797322287152</v>
+      </c>
+      <c r="G33" s="6">
+        <v>14.61038961038961</v>
+      </c>
+      <c r="H33" s="6">
         <v>22.72727272727273</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1.305483028720626</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
         <v>1.6233766233766229</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>42.207792207792203</v>
-      </c>
-      <c r="D21">
-        <v>82.5</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>35.871593878312801</v>
-      </c>
-      <c r="G21">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="H21">
-        <v>22.077922077922079</v>
-      </c>
-      <c r="I21">
-        <v>1.639344262295082</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0.27322404371584702</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1.2987012987012989</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>45.454545454545453</v>
-      </c>
-      <c r="D22">
-        <v>80</v>
-      </c>
-      <c r="E22">
-        <v>3.125</v>
-      </c>
-      <c r="F22">
-        <v>37.794192193496997</v>
-      </c>
-      <c r="G22">
-        <v>13.961038961038961</v>
-      </c>
-      <c r="H22">
-        <v>18.831168831168831</v>
-      </c>
-      <c r="I22">
-        <v>1.6759776536312849</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1.412429378531074</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>2.9220779220779218</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>44.805194805194802</v>
-      </c>
-      <c r="D23">
-        <v>82.5</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>37.581746839122218</v>
-      </c>
-      <c r="G23">
-        <v>10.064935064935071</v>
-      </c>
-      <c r="H23">
-        <v>21.103896103896101</v>
-      </c>
-      <c r="I23">
-        <v>1.149425287356322</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1.136363636363636</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>46.428571428571431</v>
-      </c>
-      <c r="D24">
-        <v>82.5</v>
-      </c>
-      <c r="E24">
-        <v>3.0303030303030298</v>
-      </c>
-      <c r="F24">
-        <v>37.960421782464252</v>
-      </c>
-      <c r="G24">
-        <v>10.064935064935071</v>
-      </c>
-      <c r="H24">
-        <v>24.02597402597403</v>
-      </c>
-      <c r="I24">
-        <v>1.1111111111111109</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0.85714285714285721</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="N24">
+      <c r="N33" s="6">
         <v>0</v>
       </c>
     </row>
